--- a/Replication Package/documentation/rider-audits/pooled/codebooks/mapping.xlsx
+++ b/Replication Package/documentation/rider-audits/pooled/codebooks/mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb501238\Documents\GitHub\rio_vagao_rosa\documentation\rider-audits\pooled\codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEF49E1-DF4A-42EC-A840-F46A088A3FD1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB455A7B-3B06-4200-AD9A-5947DA722EC4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="104">
   <si>
     <t>name</t>
   </si>
@@ -313,10 +313,28 @@
     <t>MA_police_present</t>
   </si>
   <si>
-    <t>mix_car_congestion</t>
-  </si>
-  <si>
-    <t>mix_car_compliance</t>
+    <t>MA_men_present_mix</t>
+  </si>
+  <si>
+    <t>MA_men_present_pink</t>
+  </si>
+  <si>
+    <t>pct_standing_mix</t>
+  </si>
+  <si>
+    <t>pct_standing_pink</t>
+  </si>
+  <si>
+    <t>(1 = 0) (2 = 25) (3 = 50) (4 = 90)</t>
+  </si>
+  <si>
+    <t>Percent of passengers who are standing</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>(1 = .05) (2 = .2) (3 = .4) (4 = .6) (5 = .8) (6 = .95)</t>
   </si>
 </sst>
 </file>
@@ -676,13 +694,14 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -942,7 +961,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -951,7 +970,7 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
@@ -965,7 +984,9 @@
       <c r="H7" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" t="s">
+        <v>103</v>
+      </c>
       <c r="J7" t="s">
         <v>84</v>
       </c>
@@ -979,12 +1000,12 @@
         <v>44</v>
       </c>
       <c r="N7" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -993,7 +1014,7 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s">
         <v>27</v>
@@ -1007,7 +1028,9 @@
       <c r="H8" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
       <c r="J8" t="s">
         <v>82</v>
       </c>
@@ -1021,21 +1044,21 @@
         <v>44</v>
       </c>
       <c r="N8" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
@@ -1049,7 +1072,9 @@
       <c r="H9" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="J9" t="s">
         <v>87</v>
       </c>
@@ -1063,21 +1088,21 @@
         <v>45</v>
       </c>
       <c r="N9" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
@@ -1091,7 +1116,9 @@
       <c r="H10" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="J10" t="s">
         <v>81</v>
       </c>
@@ -1105,7 +1132,7 @@
         <v>45</v>
       </c>
       <c r="N10" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:14">
